--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98706.88279699662</v>
+        <v>96005.66614553935</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.2791855053265</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>208.2085323732919</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>197.1295504095993</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>5.90640495540613</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>179.3912760493224</v>
+        <v>125.5147977580059</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>157.9243891988142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.6877278154293</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776993</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863715</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>31.47464427673509</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.68772781543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>81.99423858035433</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,7 +990,7 @@
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333231</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713962</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>9.011859906841682</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643664</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>26.16970622049768</v>
       </c>
       <c r="U7" t="n">
-        <v>231.3397145782258</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>66.40042073227724</v>
+        <v>250.5427842154775</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1348,10 +1348,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>164.7063858720983</v>
       </c>
       <c r="W10" t="n">
-        <v>80.15974472300148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>24.14662204184563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>179.6443662733263</v>
+        <v>98.53792255166395</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530794</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>105.508928064092</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>79.81330679905243</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>285.2589330419217</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.33703994142945</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189116</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977357</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>73.22341869628872</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520911</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695614</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>38.61213096654769</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>72.976073321717</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>191.6227449987296</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>177.1555223271037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670952</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077137</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470134</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428163</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.36631724422199</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060374</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4028,13 +4028,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>38.37250637580694</v>
+        <v>9.146142788179546</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>788.4778634388466</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>157.477756798422</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052541</v>
@@ -4337,13 +4337,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>690.2330699327781</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>690.2330699327781</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.4937968510533</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="C3" t="n">
-        <v>158.4937968510533</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="D3" t="n">
-        <v>158.4937968510533</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510533</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F3" t="n">
         <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004799</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="U3" t="n">
-        <v>855.7347620165303</v>
+        <v>678.083375646678</v>
       </c>
       <c r="V3" t="n">
-        <v>620.5826537847877</v>
+        <v>672.1173100351566</v>
       </c>
       <c r="W3" t="n">
-        <v>366.3452970565861</v>
+        <v>672.1173100351566</v>
       </c>
       <c r="X3" t="n">
-        <v>158.4937968510533</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.4937968510533</v>
+        <v>464.2658098296238</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.0184834666425</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="C4" t="n">
-        <v>175.0184834666425</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0184834666425</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>622.5994491745502</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U4" t="n">
-        <v>356.2217926073722</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V4" t="n">
-        <v>356.2217926073722</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="W4" t="n">
-        <v>175.0184834666425</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="X4" t="n">
-        <v>175.0184834666425</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="Y4" t="n">
-        <v>175.0184834666425</v>
+        <v>319.1268433948493</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>209.7045393548258</v>
+        <v>916.8943516132124</v>
       </c>
       <c r="C5" t="n">
-        <v>209.7045393548258</v>
+        <v>916.8943516132124</v>
       </c>
       <c r="D5" t="n">
-        <v>209.7045393548258</v>
+        <v>916.8943516132124</v>
       </c>
       <c r="E5" t="n">
-        <v>50.18495430551862</v>
+        <v>531.1060990149681</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631514</v>
+        <v>143.5427375852415</v>
       </c>
       <c r="G5" t="n">
-        <v>30.6950182252344</v>
+        <v>130.9983022541608</v>
       </c>
       <c r="H5" t="n">
-        <v>30.6950182252344</v>
+        <v>130.9983022541608</v>
       </c>
       <c r="I5" t="n">
-        <v>30.6950182252344</v>
+        <v>30.69501822523435</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275107</v>
+        <v>93.7664115927505</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245553</v>
+        <v>239.0325989245545</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825616</v>
+        <v>456.1499114825606</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748839</v>
+        <v>729.4041931748829</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202377</v>
+        <v>1011.693823202375</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.91665479841</v>
+        <v>1264.916654798408</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189406</v>
+        <v>1446.535482189404</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.75091126172</v>
+        <v>1534.750911261717</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.75091126172</v>
+        <v>1534.750911261717</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.75091126172</v>
+        <v>1502.958341285217</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.75091126172</v>
+        <v>1290.360109874292</v>
       </c>
       <c r="U5" t="n">
-        <v>1281.099443398238</v>
+        <v>1290.360109874292</v>
       </c>
       <c r="V5" t="n">
-        <v>950.0365560546674</v>
+        <v>1290.360109874292</v>
       </c>
       <c r="W5" t="n">
-        <v>597.2679007845531</v>
+        <v>1290.360109874292</v>
       </c>
       <c r="X5" t="n">
-        <v>597.2679007845531</v>
+        <v>916.8943516132124</v>
       </c>
       <c r="Y5" t="n">
-        <v>209.7045393548258</v>
+        <v>916.8943516132124</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397.224339148142</v>
+        <v>895.3438285131252</v>
       </c>
       <c r="C6" t="n">
-        <v>397.224339148142</v>
+        <v>720.8907992319982</v>
       </c>
       <c r="D6" t="n">
-        <v>397.224339148142</v>
+        <v>571.956389570747</v>
       </c>
       <c r="E6" t="n">
-        <v>314.4018759356628</v>
+        <v>412.7189345652914</v>
       </c>
       <c r="F6" t="n">
-        <v>167.8673179625478</v>
+        <v>266.1843765921764</v>
       </c>
       <c r="G6" t="n">
-        <v>30.6950182252344</v>
+        <v>129.012076854863</v>
       </c>
       <c r="H6" t="n">
-        <v>30.6950182252344</v>
+        <v>30.69501822523435</v>
       </c>
       <c r="I6" t="n">
-        <v>30.6950182252344</v>
+        <v>30.69501822523435</v>
       </c>
       <c r="J6" t="n">
-        <v>70.7870447103402</v>
+        <v>174.2721860626385</v>
       </c>
       <c r="K6" t="n">
-        <v>180.9835516516503</v>
+        <v>284.4686930039484</v>
       </c>
       <c r="L6" t="n">
-        <v>375.4788954830018</v>
+        <v>478.9640368352997</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537473</v>
+        <v>725.2877975060447</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259693</v>
+        <v>992.5396600782663</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891487</v>
+        <v>1214.803107243784</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090175</v>
+        <v>1373.856052442472</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.75091126172</v>
+        <v>1534.750911261717</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757969</v>
+        <v>1534.750911261717</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757969</v>
+        <v>1534.750911261717</v>
       </c>
       <c r="T6" t="n">
-        <v>1530.346686757969</v>
+        <v>1534.750911261717</v>
       </c>
       <c r="U6" t="n">
-        <v>1302.225603078573</v>
+        <v>1534.750911261717</v>
       </c>
       <c r="V6" t="n">
-        <v>1067.07349484683</v>
+        <v>1525.648022466928</v>
       </c>
       <c r="W6" t="n">
-        <v>812.8361381186287</v>
+        <v>1271.410665738726</v>
       </c>
       <c r="X6" t="n">
-        <v>604.9846379130959</v>
+        <v>1063.559165533193</v>
       </c>
       <c r="Y6" t="n">
-        <v>397.224339148142</v>
+        <v>1063.559165533193</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.850018019333</v>
+        <v>447.5609841169811</v>
       </c>
       <c r="C7" t="n">
-        <v>348.9138350914261</v>
+        <v>447.5609841169811</v>
       </c>
       <c r="D7" t="n">
-        <v>348.9138350914261</v>
+        <v>447.5609841169811</v>
       </c>
       <c r="E7" t="n">
-        <v>201.000741509033</v>
+        <v>447.5609841169811</v>
       </c>
       <c r="F7" t="n">
-        <v>201.000741509033</v>
+        <v>300.6710366190707</v>
       </c>
       <c r="G7" t="n">
-        <v>32.61949914709669</v>
+        <v>300.6710366190707</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709669</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709669</v>
+        <v>30.69501822523435</v>
       </c>
       <c r="J7" t="n">
-        <v>30.6950182252344</v>
+        <v>30.69501822523435</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223264</v>
+        <v>157.4322756223262</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830384</v>
+        <v>375.1387655830381</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388145</v>
+        <v>615.0688576388141</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974815</v>
+        <v>854.7285647974809</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.07679889167</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.26700593402</v>
+        <v>1212.267005934019</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495182</v>
+        <v>1234.200536495181</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495182</v>
+        <v>1234.200536495181</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495182</v>
+        <v>1234.200536495181</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495182</v>
+        <v>1207.76648980781</v>
       </c>
       <c r="U7" t="n">
-        <v>1000.524057123237</v>
+        <v>918.6266189841815</v>
       </c>
       <c r="V7" t="n">
-        <v>745.8395689173503</v>
+        <v>918.6266189841815</v>
       </c>
       <c r="W7" t="n">
-        <v>745.8395689173503</v>
+        <v>629.2094489472208</v>
       </c>
       <c r="X7" t="n">
-        <v>517.850018019333</v>
+        <v>629.2094489472208</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.850018019333</v>
+        <v>629.2094489472208</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1713.412786206037</v>
+        <v>1382.349898862468</v>
       </c>
       <c r="C8" t="n">
-        <v>1344.450269265626</v>
+        <v>1382.349898862468</v>
       </c>
       <c r="D8" t="n">
-        <v>986.1845706588754</v>
+        <v>1024.084200255717</v>
       </c>
       <c r="E8" t="n">
-        <v>600.3963180606311</v>
+        <v>1024.084200255717</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
         <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.012626270159</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.012626270159</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.012626270159</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y8" t="n">
-        <v>2100.012626270159</v>
+        <v>1768.949738926589</v>
       </c>
     </row>
     <row r="9">
@@ -4863,49 +4863,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605189</v>
+        <v>507.2413987429764</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919907</v>
+        <v>801.9449557744481</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>927.7205539329318</v>
+        <v>658.7670607090208</v>
       </c>
       <c r="W10" t="n">
-        <v>846.7511148187889</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="X10" t="n">
-        <v>846.7511148187889</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>369.3498906720603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1947.664647156212</v>
+        <v>2333.452899754456</v>
       </c>
       <c r="C11" t="n">
-        <v>1578.7021302158</v>
+        <v>1964.490382814044</v>
       </c>
       <c r="D11" t="n">
-        <v>1220.43643160905</v>
+        <v>1606.224684207294</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>1220.436431609049</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194423</v>
+        <v>809.4505268194418</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J11" t="n">
         <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656956</v>
+        <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
         <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535294</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479994</v>
+        <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464058</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796035</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345377</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926741</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="U11" t="n">
-        <v>3391.561788095099</v>
+        <v>3777.350040693343</v>
       </c>
       <c r="V11" t="n">
-        <v>3060.498900751528</v>
+        <v>3446.287153349772</v>
       </c>
       <c r="W11" t="n">
-        <v>2707.730245481413</v>
+        <v>3093.518498079658</v>
       </c>
       <c r="X11" t="n">
-        <v>2334.264487220334</v>
+        <v>2720.052739818578</v>
       </c>
       <c r="Y11" t="n">
-        <v>2334.264487220334</v>
+        <v>2720.052739818578</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592071</v>
+        <v>193.8410919870411</v>
       </c>
       <c r="K12" t="n">
-        <v>272.7431585655881</v>
+        <v>470.7769964046652</v>
       </c>
       <c r="L12" t="n">
-        <v>691.4401992235397</v>
+        <v>889.4740370626166</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.396765180068</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881278</v>
+        <v>1532.266717861146</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2000.207762193669</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.0566881811108</v>
+        <v>184.1123407281349</v>
       </c>
       <c r="C13" t="n">
-        <v>781.1205052532039</v>
+        <v>184.1123407281349</v>
       </c>
       <c r="D13" t="n">
-        <v>631.003865840868</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="E13" t="n">
-        <v>483.0907722584749</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2008247605645</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758647</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648144</v>
+        <v>364.1690246648142</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344809</v>
+        <v>710.5788654344806</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336946</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818663</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010721</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2056.743466925582</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458879</v>
+        <v>1868.627619458878</v>
       </c>
       <c r="T13" t="n">
-        <v>1868.627619458879</v>
+        <v>1647.736286893318</v>
       </c>
       <c r="U13" t="n">
-        <v>1868.627619458879</v>
+        <v>1358.644593842769</v>
       </c>
       <c r="V13" t="n">
-        <v>1868.627619458879</v>
+        <v>1103.960105636882</v>
       </c>
       <c r="W13" t="n">
-        <v>1580.487283052898</v>
+        <v>814.5429355999217</v>
       </c>
       <c r="X13" t="n">
-        <v>1352.497732154881</v>
+        <v>586.5533847019044</v>
       </c>
       <c r="Y13" t="n">
-        <v>1131.70515301135</v>
+        <v>365.7608055583743</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,13 +5294,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.747479770887</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429801</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429801</v>
+        <v>261.8464821474269</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429801</v>
+        <v>113.9333885650337</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138409</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703107</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="17">
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400722</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121653</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998296</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G19" t="n">
         <v>175.9033664000583</v>
@@ -5668,16 +5668,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138421</v>
+        <v>1359.39637307949</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.502065570312</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327641</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048577</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630038</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908938</v>
@@ -6145,10 +6145,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,13 +6239,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.8386896933889</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1981.370942808024</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.279733667159</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.4871545236286</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="29">
@@ -6443,34 +6443,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6543,22 +6543,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400713</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121644</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121644</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121644</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121644</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6637,7 +6637,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.27452942083</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443771</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138412</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703111</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,19 +6719,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>516.5309703533133</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>368.6178767709201</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>221.7279292730098</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138413</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7263,7 +7263,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400708</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7439,13 +7439,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7676,19 +7676,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,7 +7734,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
         <v>2001.151557821488</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2408.20297612995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2225.348141784855</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2005.746676807796</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1716.671450151994</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1461.986961946107</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.569791909146</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1172.569791909146</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y46" t="n">
-        <v>951.7772127656159</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637031</v>
+        <v>34.43939438637048</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.56058953000628</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>105.5468419254456</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241567</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111053</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615216</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>71.31463618636069</v>
+        <v>152.421079908023</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>43.10654495412031</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927377</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.264065294669308</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.945315721635453e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856163</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667956</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>152.4862366927484</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>34.08691039030754</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>109.0289520621404</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219421</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>120.1578210480469</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.45968844823061</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610408</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194236</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.00274033431474</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>981049.7960687845</v>
+        <v>981049.7960687843</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1079838.291994467</v>
+        <v>1079838.291994468</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1079838.291994467</v>
+        <v>1079838.291994468</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1079838.291994468</v>
+        <v>1079838.291994467</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348942.7521923204</v>
+      </c>
+      <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
-      <c r="C2" t="n">
-        <v>348942.7521923204</v>
-      </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="E2" t="n">
-        <v>311350.4288166185</v>
+        <v>311350.4288166182</v>
       </c>
       <c r="F2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="G2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="H2" t="n">
         <v>343037.3048682528</v>
-      </c>
-      <c r="G2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="H2" t="n">
-        <v>343037.3048682527</v>
       </c>
       <c r="I2" t="n">
         <v>343037.3048682525</v>
@@ -26338,22 +26338,22 @@
         <v>343037.3048682528</v>
       </c>
       <c r="K2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="N2" t="n">
+        <v>343037.3048682525</v>
+      </c>
+      <c r="O2" t="n">
+        <v>343037.3048682525</v>
+      </c>
+      <c r="P2" t="n">
         <v>343037.3048682528</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343037.3048682526</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657058</v>
+        <v>132804.219065705</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929388</v>
+        <v>265413.0723929396</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545772</v>
+        <v>313577.1573545767</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770429</v>
+        <v>189308.2687704297</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417397</v>
+        <v>30877.42926417377</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.3450204959</v>
+        <v>65018.34502049609</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273075</v>
+        <v>81897.40371273064</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202369</v>
+        <v>49839.57413202386</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215494.7982664857</v>
+        <v>215494.7982664859</v>
       </c>
       <c r="D4" t="n">
-        <v>140338.6838374607</v>
+        <v>140338.6838374606</v>
       </c>
       <c r="E4" t="n">
-        <v>11061.61369214698</v>
+        <v>11061.61369214697</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="M4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="N4" t="n">
         <v>11167.03225179353</v>
       </c>
-      <c r="N4" t="n">
-        <v>11167.03225179351</v>
-      </c>
       <c r="O4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179348</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667485</v>
+        <v>72593.6503866748</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738563</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-645420.3972221586</v>
+        <v>-645420.3972221588</v>
       </c>
       <c r="C6" t="n">
-        <v>-71949.91552654598</v>
+        <v>-71949.91552654523</v>
       </c>
       <c r="D6" t="n">
-        <v>-149746.7764779237</v>
+        <v>-149746.7764779247</v>
       </c>
       <c r="E6" t="n">
-        <v>-98425.82729749127</v>
+        <v>-98646.95861146579</v>
       </c>
       <c r="F6" t="n">
-        <v>41439.47402212316</v>
+        <v>41404.73609668687</v>
       </c>
       <c r="G6" t="n">
-        <v>230747.7427925521</v>
+        <v>230713.0048671166</v>
       </c>
       <c r="H6" t="n">
-        <v>230747.742792552</v>
+        <v>230713.0048671165</v>
       </c>
       <c r="I6" t="n">
-        <v>230747.7427925519</v>
+        <v>230713.0048671163</v>
       </c>
       <c r="J6" t="n">
-        <v>161748.588373438</v>
+        <v>161713.8504480023</v>
       </c>
       <c r="K6" t="n">
-        <v>199870.3135283781</v>
+        <v>199835.5756029425</v>
       </c>
       <c r="L6" t="n">
-        <v>165729.3977720561</v>
+        <v>165694.6598466201</v>
       </c>
       <c r="M6" t="n">
-        <v>148850.3390798213</v>
+        <v>148815.6011543856</v>
       </c>
       <c r="N6" t="n">
-        <v>180908.1686605283</v>
+        <v>180873.4307350923</v>
       </c>
       <c r="O6" t="n">
-        <v>230747.7427925519</v>
+        <v>230713.0048671161</v>
       </c>
       <c r="P6" t="n">
-        <v>230747.7427925519</v>
+        <v>230713.0048671165</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695739</v>
+        <v>717.3319511695732</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.68772781543</v>
+        <v>383.6877278154293</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490088</v>
+        <v>969.2208239490084</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000956</v>
+        <v>103.2769374000949</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479654</v>
+        <v>216.732940947966</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974111</v>
+        <v>268.1763450974107</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.734263126724</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139239</v>
+        <v>119.9738478139231</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846087</v>
+        <v>256.8971042846097</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489694</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506402</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139239</v>
+        <v>119.9738478139232</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846087</v>
+        <v>256.8971042846094</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489696</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506402</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139239</v>
+        <v>119.9738478139231</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846087</v>
+        <v>256.8971042846097</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489694</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506402</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.5968602363849</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>42.93963550499055</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27464,10 +27464,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>28.72493709395536</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.8941821940192</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>107.1317222872686</v>
+        <v>161.008200578585</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>224.0059808734476</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.18831792628214</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863705</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>111.8320510893026</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840623549</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>75.65084187504661</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333229</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951737</v>
+        <v>36.27346476951742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258714048</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698459</v>
@@ -27749,10 +27749,10 @@
         <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>223.7887272425836</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643749</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>196.2488993217232</v>
       </c>
       <c r="U7" t="n">
-        <v>54.90875753716648</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>340.4756250094342</v>
+        <v>156.3332615262339</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>87.43125745172972</v>
       </c>
       <c r="W10" t="n">
-        <v>206.3632536135895</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-4.816298607236514e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-4.314705423721039e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>3.714148988365195e-12</v>
       </c>
     </row>
     <row r="20">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>7.515257381924285e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30748,13 +30748,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-1.614558897487098e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365119</v>
+        <v>2.883746537365116</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579053</v>
+        <v>29.53316922579051</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817689</v>
+        <v>111.1756383817688</v>
       </c>
       <c r="J5" t="n">
-        <v>244.754382675693</v>
+        <v>244.7543826756928</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023586</v>
+        <v>366.8233736023582</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952464</v>
+        <v>455.076831695246</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791133</v>
+        <v>506.3606591791129</v>
       </c>
       <c r="N5" t="n">
-        <v>514.554104028402</v>
+        <v>514.5541040284015</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974776</v>
+        <v>485.8788493974772</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562762</v>
+        <v>414.6863567562758</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868877</v>
+        <v>311.4121838868874</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277618</v>
+        <v>181.1461434277616</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020771</v>
+        <v>65.71337422020765</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731582</v>
+        <v>12.6236004673158</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892095</v>
+        <v>0.2306997229892093</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270404</v>
+        <v>1.542940423270403</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316417</v>
+        <v>14.90155619316416</v>
       </c>
       <c r="I6" t="n">
-        <v>53.1231680818977</v>
+        <v>53.12316808189765</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862622</v>
+        <v>145.7740335862621</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453793</v>
+        <v>249.1510419453791</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438657</v>
+        <v>335.0143230438654</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874178</v>
+        <v>390.9459133874174</v>
       </c>
       <c r="N6" t="n">
-        <v>401.293088418911</v>
+        <v>401.2930884189106</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348668</v>
+        <v>367.1047769348664</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190652</v>
+        <v>294.6339480190649</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739555</v>
+        <v>196.9549915739553</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392917</v>
+        <v>95.79765189392909</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399192</v>
+        <v>28.65944163399189</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21913267098904</v>
+        <v>6.219132670989034</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730529</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141854</v>
+        <v>1.293549420141853</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907941</v>
+        <v>11.50083029907939</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572051</v>
+        <v>38.90055892572047</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402911</v>
+        <v>91.45394400402903</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401172</v>
+        <v>150.2869235401171</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545445</v>
+        <v>192.3155201545443</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773272</v>
+        <v>202.769751377327</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022532</v>
+        <v>197.948339902253</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669596</v>
+        <v>182.8373307669595</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960657</v>
+        <v>156.4489225960655</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266057</v>
+        <v>108.3171246266056</v>
       </c>
       <c r="R7" t="n">
-        <v>58.162685745651</v>
+        <v>58.16268574565095</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101758</v>
+        <v>22.54303853101756</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060649</v>
+        <v>5.526983886060644</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864669</v>
+        <v>0.07055724109864663</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869142</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.49729877639236</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.7923367975123</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.7042574544653</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954555</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.3875761180163</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.32813369568</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.0102219620354</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825967</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469206</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>335.0187042770534</v>
+        <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>561.4806834747745</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>655.2214742821476</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>267.5398078833348</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924473</v>
+        <v>615.2639659924471</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383445</v>
+        <v>493.8035753383443</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047538</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605173</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798451</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.318904810054</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811706</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.26317018837748</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>248.5245325067415</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O18" t="n">
-        <v>163.1438255932938</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041054</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>688.8020111197787</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34454,10 +34454,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900671</v>
+        <v>63.70847814900648</v>
       </c>
       <c r="K5" t="n">
-        <v>146.733522557378</v>
+        <v>146.7335225573777</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252592</v>
+        <v>219.3104167252587</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518406</v>
+        <v>276.0144259518402</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318111</v>
+        <v>285.1410404318106</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757909</v>
+        <v>255.7806379757904</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010066</v>
+        <v>183.4533610010062</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243822</v>
+        <v>89.10649401243793</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.49699644960181</v>
+        <v>145.0274422600042</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710203</v>
+        <v>111.3096029710201</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639915</v>
+        <v>196.4599432639912</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653994</v>
+        <v>248.811879465399</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355777</v>
+        <v>269.9513763355773</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904223</v>
+        <v>224.508532490422</v>
       </c>
       <c r="P6" t="n">
-        <v>160.659540604735</v>
+        <v>160.6595406047347</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.050505223783</v>
+        <v>162.5200594133794</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142344</v>
+        <v>128.0174317142342</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148606</v>
+        <v>219.9055454148604</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391678</v>
+        <v>242.3536283391676</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814818</v>
+        <v>242.0805122814816</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809993</v>
+        <v>207.4224586809991</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609592</v>
+        <v>153.727481860959</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491128</v>
+        <v>22.15508137491118</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676415</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419598</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525318</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681828</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.2299222739932</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067659</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081472</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553062</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>197.1772653026944</v>
+        <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>422.9263036949004</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601292</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>136.1980958000015</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480029</v>
+        <v>472.6677215480026</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.829167924014</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187323</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655339</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.9167231918627</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946634</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.37638356776306</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>114.5501250924112</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O18" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295371</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>546.2057666753343</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
